--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\edx\UC_San_DiegoX ALGS202x\week5_mst_starters\Min_Spanning_Tree\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="sorted csr" sheetId="4" r:id="rId4"/>
     <sheet name="scipy path" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -29,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -82,17 +93,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +191,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,14 +402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,224 +417,224 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-441</v>
+        <v>-543</v>
       </c>
       <c r="C2">
-        <v>-584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-997</v>
+        <v>-430</v>
       </c>
       <c r="C3">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>-58</v>
       </c>
       <c r="C4">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>720</v>
+        <v>-741</v>
       </c>
       <c r="C5">
-        <v>-680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-529</v>
+        <v>-760</v>
       </c>
       <c r="C6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-780</v>
+        <v>-613</v>
       </c>
       <c r="C7">
-        <v>-626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>528</v>
+        <v>-650</v>
       </c>
       <c r="C8">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-842</v>
+        <v>414</v>
       </c>
       <c r="C9">
-        <v>-928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="C10">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>803</v>
+        <v>-329</v>
       </c>
       <c r="C11">
-        <v>-196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-329</v>
+        <v>503</v>
       </c>
       <c r="C12">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-51</v>
+        <v>793</v>
       </c>
       <c r="C13">
-        <v>-931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-510</v>
+        <v>550</v>
       </c>
       <c r="C14">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-984</v>
+        <v>-352</v>
       </c>
       <c r="C15">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-562</v>
+        <v>492</v>
       </c>
       <c r="C16">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-549</v>
+        <v>-877</v>
       </c>
       <c r="C18">
-        <v>-253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>655</v>
+        <v>-805</v>
       </c>
       <c r="C19">
-        <v>-770</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-879</v>
+        <v>-791</v>
       </c>
       <c r="C20">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>861</v>
+        <v>-264</v>
       </c>
       <c r="C21">
-        <v>387</v>
+        <v>-648</v>
       </c>
     </row>
   </sheetData>
@@ -621,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -690,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -755,12 +777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>966.0414069800528</v>
+        <v>642.02258527251206</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -820,15 +842,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>991.3349585281455</v>
+        <v>693.00072150034589</v>
       </c>
       <c r="C4">
-        <v>1095.805183415373</v>
+        <v>396.42527669158528</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -885,18 +907,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1164.962231147431</v>
+        <v>199.3313823761828</v>
       </c>
       <c r="C5">
-        <v>1932.119302734694</v>
+        <v>683.8143022780381</v>
       </c>
       <c r="D5">
-        <v>1117.169637969095</v>
+        <v>830.22466838802131</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -950,21 +972,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>647.0123646422841</v>
+        <v>225.14217730136659</v>
       </c>
       <c r="C6">
-        <v>491.1466176204413</v>
+        <v>766.65768110676356</v>
       </c>
       <c r="D6">
-        <v>655.4464127600364</v>
+        <v>894.8904960943546</v>
       </c>
       <c r="E6">
-        <v>1450.231016079852</v>
+        <v>85.14693182963201</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1015,24 +1037,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>341.5918617297549</v>
+        <v>938.61387162133929</v>
       </c>
       <c r="C7">
-        <v>859.8331233442917</v>
+        <v>354.8309456628607</v>
       </c>
       <c r="D7">
-        <v>1238.854309432711</v>
+        <v>708.8765759989534</v>
       </c>
       <c r="E7">
-        <v>1500.971685275908</v>
+        <v>921.92895604813282</v>
       </c>
       <c r="F7">
-        <v>727.6606351864858</v>
+        <v>1006.78945167299</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1080,27 +1102,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1631.848644942294</v>
+        <v>131.2440474840669</v>
       </c>
       <c r="C8">
-        <v>1612.189194852763</v>
+        <v>597.94314110958749</v>
       </c>
       <c r="D8">
-        <v>645.1829197987188</v>
+        <v>725.27580960624903</v>
       </c>
       <c r="E8">
-        <v>1422.021448502096</v>
+        <v>105.3090689352061</v>
       </c>
       <c r="F8">
-        <v>1252.530638347821</v>
+        <v>174.91712323268979</v>
       </c>
       <c r="G8">
-        <v>1883.318613511798</v>
+        <v>860.79556225621889</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1145,30 +1167,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>528.3341745524323</v>
+        <v>1631.223467217168</v>
       </c>
       <c r="C9">
-        <v>1144.544014007325</v>
+        <v>1089.521454584534</v>
       </c>
       <c r="D9">
-        <v>1505.515194210938</v>
+        <v>951.34641429922885</v>
       </c>
       <c r="E9">
-        <v>1581.565047666393</v>
+        <v>1737.4777696419601</v>
       </c>
       <c r="F9">
-        <v>1033.534711560284</v>
+        <v>1812.577446621247</v>
       </c>
       <c r="G9">
-        <v>308.2985565973347</v>
+        <v>1096.792596619799</v>
       </c>
       <c r="H9">
-        <v>2150.011395318639</v>
+        <v>1637.7182297330639</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1210,33 +1232,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1508.971835389912</v>
+        <v>1626.2478285919401</v>
       </c>
       <c r="C10">
-        <v>1644.019464604966</v>
+        <v>1203.3058630290141</v>
       </c>
       <c r="D10">
-        <v>576.427792529125</v>
+        <v>938.44126081497507</v>
       </c>
       <c r="E10">
-        <v>1170.02777744804</v>
+        <v>1768.475332030391</v>
       </c>
       <c r="F10">
-        <v>1229.286378351277</v>
+        <v>1833.0534634865401</v>
       </c>
       <c r="G10">
-        <v>1790.238252300514</v>
+        <v>1316.034194084637</v>
       </c>
       <c r="H10">
-        <v>260.9099461500078</v>
+        <v>1663.649301986449</v>
       </c>
       <c r="I10">
-        <v>2036.079811795206</v>
+        <v>391.86222068477082</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1275,36 +1297,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1303.103986641128</v>
+        <v>224.84883811129649</v>
       </c>
       <c r="C11">
-        <v>1844.343785740609</v>
+        <v>708.2386603398603</v>
       </c>
       <c r="D11">
-        <v>833.1632493095216</v>
+        <v>625.72917464347142</v>
       </c>
       <c r="E11">
-        <v>491.0651687912716</v>
+        <v>422.14689386515693</v>
       </c>
       <c r="F11">
-        <v>1355.814515337552</v>
+        <v>431.09395727613719</v>
       </c>
       <c r="G11">
-        <v>1640.362459945972</v>
+        <v>1044.3567398164289</v>
       </c>
       <c r="H11">
-        <v>965.0129532809391</v>
+        <v>352.23003846917999</v>
       </c>
       <c r="I11">
-        <v>1800.513537855242</v>
+        <v>1576.118333120962</v>
       </c>
       <c r="J11">
-        <v>705.3538119270356</v>
+        <v>1519.581850378584</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1340,39 +1362,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1144.493337682662</v>
+        <v>1460.998288842256</v>
       </c>
       <c r="C12">
-        <v>753.6743328520615</v>
+        <v>1010.461775625382</v>
       </c>
       <c r="D12">
-        <v>525.9068358559338</v>
+        <v>768.3397685919947</v>
       </c>
       <c r="E12">
-        <v>1620.378350879819</v>
+        <v>1594.2223809744989</v>
       </c>
       <c r="F12">
-        <v>536.6600413669719</v>
+        <v>1661.796919000634</v>
       </c>
       <c r="G12">
-        <v>1264.184322003718</v>
+        <v>1119.1568254717481</v>
       </c>
       <c r="H12">
-        <v>874.4855630597912</v>
+        <v>1490.1493213768881</v>
       </c>
       <c r="I12">
-        <v>1569.222100277714</v>
+        <v>313.88214348701013</v>
       </c>
       <c r="J12">
-        <v>954.4972498650795</v>
+        <v>197.44872752185569</v>
       </c>
       <c r="K12">
-        <v>1358.464206374242</v>
+        <v>1370.454304236373</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1405,42 +1427,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>522.0239458109178</v>
+        <v>1354.4832963163481</v>
       </c>
       <c r="C13">
-        <v>1479.082485867506</v>
+        <v>1492.231215328241</v>
       </c>
       <c r="D13">
-        <v>1188.377886027841</v>
+        <v>1113.429387074008</v>
       </c>
       <c r="E13">
-        <v>810.8279718904621</v>
+        <v>1553.5996910401341</v>
       </c>
       <c r="F13">
-        <v>1097.555465568825</v>
+        <v>1561.5306593211669</v>
       </c>
       <c r="G13">
-        <v>790.2316116177585</v>
+        <v>1822.1188215920499</v>
       </c>
       <c r="H13">
-        <v>1758.078780942424</v>
+        <v>1473.6519263381019</v>
       </c>
       <c r="I13">
-        <v>791.0056889808062</v>
+        <v>1589.8355260843809</v>
       </c>
       <c r="J13">
-        <v>1569.128739141566</v>
+        <v>1277.537083610491</v>
       </c>
       <c r="K13">
-        <v>1126.73910023572</v>
+        <v>1132.5193155085699</v>
       </c>
       <c r="L13">
-        <v>1511.780407334346</v>
+        <v>1276.3812126476951</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1470,45 +1492,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>905.6323757463621</v>
+        <v>1491.6011531237159</v>
       </c>
       <c r="C14">
-        <v>499.9379961555233</v>
+        <v>1052.182968879463</v>
       </c>
       <c r="D14">
-        <v>612.1315218153693</v>
+        <v>800.03999900004999</v>
       </c>
       <c r="E14">
-        <v>1584.582279340521</v>
+        <v>1628.110868460745</v>
       </c>
       <c r="F14">
-        <v>262.68802789621</v>
+        <v>1694.6164757844181</v>
       </c>
       <c r="G14">
-        <v>982.81483505287</v>
+        <v>1165.680059021342</v>
       </c>
       <c r="H14">
-        <v>1116.039425826884</v>
+        <v>1523.719462368319</v>
       </c>
       <c r="I14">
-        <v>1290.439072564063</v>
+        <v>334.86116526106758</v>
       </c>
       <c r="J14">
-        <v>1145.241459256519</v>
+        <v>152.3154621172782</v>
       </c>
       <c r="K14">
-        <v>1410.387889908305</v>
+        <v>1395.59915448527</v>
       </c>
       <c r="L14">
-        <v>297.4172153726142</v>
+        <v>47.265209192385903</v>
       </c>
       <c r="M14">
-        <v>1331.608425927082</v>
+        <v>1261.6231608527171</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1535,48 +1557,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1151.118586419314</v>
+        <v>199.32385707686879</v>
       </c>
       <c r="C15">
-        <v>225.3752426510064</v>
+        <v>693.40103836091851</v>
       </c>
       <c r="D15">
-        <v>1097.366392778638</v>
+        <v>625.41186429424249</v>
       </c>
       <c r="E15">
-        <v>2034.191977174229</v>
+        <v>397.1410328837855</v>
       </c>
       <c r="F15">
-        <v>588.9830218266057</v>
+        <v>408.01102926269039</v>
       </c>
       <c r="G15">
-        <v>1076.505921953056</v>
+        <v>1026.7278120319911</v>
       </c>
       <c r="H15">
-        <v>1541.086629622099</v>
+        <v>326.33265236564972</v>
       </c>
       <c r="I15">
-        <v>1366.398550936</v>
+        <v>1576.5912596484859</v>
       </c>
       <c r="J15">
-        <v>1607.940919312647</v>
+        <v>1526.4874712882511</v>
       </c>
       <c r="K15">
-        <v>1893.805164213045</v>
+        <v>25.94224354214569</v>
       </c>
       <c r="L15">
-        <v>666.6340825370393</v>
+        <v>1375.1196311594131</v>
       </c>
       <c r="M15">
-        <v>1650.918835073366</v>
+        <v>1156.9706132828089</v>
       </c>
       <c r="N15">
-        <v>487.0523585817032</v>
+        <v>1400.9953604491341</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1600,51 +1622,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1504.872419841629</v>
+        <v>1493.7047901108169</v>
       </c>
       <c r="C16">
-        <v>832.6613957666106</v>
+        <v>1023.771947261694</v>
       </c>
       <c r="D16">
-        <v>939.0548439787742</v>
+        <v>800.76463458372086</v>
       </c>
       <c r="E16">
-        <v>2047.129697894103</v>
+        <v>1622.0989488930691</v>
       </c>
       <c r="F16">
-        <v>859.6336428967866</v>
+        <v>1691.2341647447879</v>
       </c>
       <c r="G16">
-        <v>1557.333618721435</v>
+        <v>1113.9596042945179</v>
       </c>
       <c r="H16">
-        <v>1105.92450013552</v>
+        <v>1518.6062689189721</v>
       </c>
       <c r="I16">
-        <v>1865.136992287698</v>
+        <v>256.16400996236769</v>
       </c>
       <c r="J16">
-        <v>1260.605013475672</v>
+        <v>207.6342938919291</v>
       </c>
       <c r="K16">
-        <v>1760.616085351943</v>
+        <v>1409.7365002013671</v>
       </c>
       <c r="L16">
-        <v>429.6626583728216</v>
+        <v>58.051701094799967</v>
       </c>
       <c r="M16">
-        <v>1916.38461692845</v>
+        <v>1334.391621676335</v>
       </c>
       <c r="N16">
-        <v>599.2603774654219</v>
+        <v>84.899941107164494</v>
       </c>
       <c r="O16">
-        <v>642.8911260859027</v>
+        <v>1413.609564200809</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1665,54 +1687,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1729.587523081732</v>
+        <v>1749.698545464332</v>
       </c>
       <c r="C17">
-        <v>1576.049808857575</v>
+        <v>1118.7457262488199</v>
       </c>
       <c r="D17">
-        <v>742.8593406560894</v>
+        <v>1165.351878189588</v>
       </c>
       <c r="E17">
-        <v>1634.445471712042</v>
+        <v>1801.741934906328</v>
       </c>
       <c r="F17">
-        <v>1275.113328296744</v>
+        <v>1885.125990484456</v>
       </c>
       <c r="G17">
-        <v>1951.690549241862</v>
+        <v>957.5620084360072</v>
       </c>
       <c r="H17">
-        <v>230.0195643852931</v>
+        <v>1716.473128248736</v>
       </c>
       <c r="I17">
-        <v>2233.250545729251</v>
+        <v>521.51030670543798</v>
       </c>
       <c r="J17">
-        <v>488.8077331630505</v>
+        <v>913.00219057787592</v>
       </c>
       <c r="K17">
-        <v>1188.279849193783</v>
+        <v>1761.1229372193191</v>
       </c>
       <c r="L17">
-        <v>822.4268964473378</v>
+        <v>802.62880586233632</v>
       </c>
       <c r="M17">
-        <v>1910.464341462567</v>
+        <v>2035.163384104578</v>
       </c>
       <c r="N17">
-        <v>1097.76181387403</v>
+        <v>835.82593881740718</v>
       </c>
       <c r="O17">
-        <v>1474.838635241158</v>
+        <v>1754.0379129311891</v>
       </c>
       <c r="P17">
-        <v>968.033057286785</v>
+        <v>751.09054048097289</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1730,57 +1752,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>348.1738071710737</v>
+        <v>969.35855079531848</v>
       </c>
       <c r="C18">
-        <v>641.3930152410455</v>
+        <v>526.39623858838502</v>
       </c>
       <c r="D18">
-        <v>818.2970120927976</v>
+        <v>918.14269043542458</v>
       </c>
       <c r="E18">
-        <v>1338.913738819645</v>
+        <v>897.36558882096654</v>
       </c>
       <c r="F18">
-        <v>310.6444913401813</v>
+        <v>977.03070576108303</v>
       </c>
       <c r="G18">
-        <v>438.7368231639555</v>
+        <v>265.27721349561858</v>
       </c>
       <c r="H18">
-        <v>1457.481732304045</v>
+        <v>864.34078927237954</v>
       </c>
       <c r="I18">
-        <v>735.8491693275192</v>
+        <v>1354.8439024478059</v>
       </c>
       <c r="J18">
-        <v>1385.534193010046</v>
+        <v>1581.2988332380439</v>
       </c>
       <c r="K18">
-        <v>1353.201019804523</v>
+        <v>1121.9380553310421</v>
       </c>
       <c r="L18">
-        <v>837.4150703205669</v>
+        <v>1384.3771162512039</v>
       </c>
       <c r="M18">
-        <v>841.2419390401313</v>
+        <v>2018.065658000254</v>
       </c>
       <c r="N18">
-        <v>573.3280038511986</v>
+        <v>1430.8577846872131</v>
       </c>
       <c r="O18">
-        <v>810.605329368121</v>
+        <v>1100.3244975915061</v>
       </c>
       <c r="P18">
-        <v>1169.072281768754</v>
+        <v>1379.1482878936549</v>
       </c>
       <c r="Q18">
-        <v>1515.702477401155</v>
+        <v>1164.883255953145</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -1795,60 +1817,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1111.670814584965</v>
+        <v>1588.752025962516</v>
       </c>
       <c r="C19">
-        <v>1918.770439630546</v>
+        <v>1007.397637479858</v>
       </c>
       <c r="D19">
-        <v>1160.419320762973</v>
+        <v>1306.59595897125</v>
       </c>
       <c r="E19">
-        <v>111.0180165558726</v>
+        <v>1545.325855604571</v>
       </c>
       <c r="F19">
-        <v>1444.224705508115</v>
+        <v>1627.6221920335199</v>
       </c>
       <c r="G19">
-        <v>1442.206989304933</v>
+        <v>659.56425009243787</v>
       </c>
       <c r="H19">
-        <v>1504.370300158841</v>
+        <v>1499.0350229397579</v>
       </c>
       <c r="I19">
-        <v>1505.314917218321</v>
+        <v>1243.574284069914</v>
       </c>
       <c r="J19">
-        <v>1256.407577181863</v>
+        <v>1589.1082404921319</v>
       </c>
       <c r="K19">
-        <v>592.7731437911134</v>
+        <v>1703.840368109642</v>
       </c>
       <c r="L19">
-        <v>1650.418431792374</v>
+        <v>1417.77043275701</v>
       </c>
       <c r="M19">
-        <v>724.1249892111168</v>
+        <v>2399.5216189899188</v>
       </c>
       <c r="N19">
-        <v>1594.72442760497</v>
+        <v>1463.1230296868409</v>
       </c>
       <c r="O19">
-        <v>2031.925687617537</v>
+        <v>1685.9967378378881</v>
       </c>
       <c r="P19">
-        <v>2079.347253346588</v>
+        <v>1386.473584313816</v>
       </c>
       <c r="Q19">
-        <v>1712.202382897536</v>
+        <v>826.0278445669976</v>
       </c>
       <c r="R19">
-        <v>1310.307215884886</v>
+        <v>660.93343083853767</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1860,63 +1882,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1286.834876742156</v>
+        <v>1182.302837685844</v>
       </c>
       <c r="C20">
-        <v>436.2613895361358</v>
+        <v>636.31517347930651</v>
       </c>
       <c r="D20">
-        <v>1047.574818330414</v>
+        <v>987.0207697915987</v>
       </c>
       <c r="E20">
-        <v>2064.567024826271</v>
+        <v>1134.1027290329571</v>
       </c>
       <c r="F20">
-        <v>668.0276940367069</v>
+        <v>1216.395083844061</v>
       </c>
       <c r="G20">
-        <v>1255.908038034632</v>
+        <v>282.99116593985758</v>
       </c>
       <c r="H20">
-        <v>1410.765040678284</v>
+        <v>1089.1652767142371</v>
       </c>
       <c r="I20">
-        <v>1554.4404137824</v>
+        <v>1216.244218896846</v>
       </c>
       <c r="J20">
-        <v>1508.510523662331</v>
+        <v>1492.697558114168</v>
       </c>
       <c r="K20">
-        <v>1872.113244437953</v>
+        <v>1309.224579665384</v>
       </c>
       <c r="L20">
-        <v>554.5637925432925</v>
+        <v>1301.12720362</v>
       </c>
       <c r="M20">
-        <v>1763.471859713106</v>
+        <v>2100.1659458242821</v>
       </c>
       <c r="N20">
-        <v>480.0104165536411</v>
+        <v>1348.392376127958</v>
       </c>
       <c r="O20">
-        <v>221.472345903501</v>
+        <v>1289.9961240251851</v>
       </c>
       <c r="P20">
-        <v>429.6382199013491</v>
+        <v>1285.429889181047</v>
       </c>
       <c r="Q20">
-        <v>1319.101588203122</v>
+        <v>950.3962331575184</v>
       </c>
       <c r="R20">
-        <v>938.9041484624508</v>
+        <v>260.59930928534709</v>
       </c>
       <c r="S20">
-        <v>2074.119572252285</v>
+        <v>411.23837369584078</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -1925,66 +1947,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1624.205959846226</v>
+        <v>1338.4027794352489</v>
       </c>
       <c r="C21">
-        <v>1866.79538246697</v>
+        <v>697.05451723663623</v>
       </c>
       <c r="D21">
-        <v>775.5578637342284</v>
+        <v>839.66183669379666</v>
       </c>
       <c r="E21">
-        <v>1076.275986910421</v>
+        <v>1371.61401276015</v>
       </c>
       <c r="F21">
-        <v>1428.635712839351</v>
+        <v>1456.0827586370219</v>
       </c>
       <c r="G21">
-        <v>1928.483860445817</v>
+        <v>510.81307735804887</v>
       </c>
       <c r="H21">
-        <v>477.3395018223403</v>
+        <v>1292.0081269094251</v>
       </c>
       <c r="I21">
-        <v>2151.611953861569</v>
+        <v>678.10618637496589</v>
       </c>
       <c r="J21">
-        <v>257.7692766797471</v>
+        <v>995.99598392764619</v>
       </c>
       <c r="K21">
-        <v>585.8779736429763</v>
+        <v>1379.5321670769411</v>
       </c>
       <c r="L21">
-        <v>1201.800316192337</v>
+        <v>819.6401649504495</v>
       </c>
       <c r="M21">
-        <v>1602.768854202003</v>
+        <v>1861.25575888968</v>
       </c>
       <c r="N21">
-        <v>1372.685324464424</v>
+        <v>865.46634827704304</v>
       </c>
       <c r="O21">
-        <v>1845.524586669059</v>
+        <v>1368.831618571108</v>
       </c>
       <c r="P21">
-        <v>1518.146896713226</v>
+        <v>790.79706625657127</v>
       </c>
       <c r="Q21">
-        <v>703.8423118852688</v>
+        <v>447.43826389793708</v>
       </c>
       <c r="R21">
-        <v>1548.450838741741</v>
+        <v>731.41643405108141</v>
       </c>
       <c r="S21">
-        <v>1175.195728378894</v>
+        <v>599.37050311138933</v>
       </c>
       <c r="T21">
-        <v>1756.337382167788</v>
+        <v>548.76042131334509</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -1996,14 +2018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2014,147 +2036,147 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>111.0180165558726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>25.94224354214569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>221.472345903501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>47.265209192385903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>225.3752426510064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>58.051701094799967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>230.0195643852931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>84.899941107164494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>257.7692766797471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>85.14693182963201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
       <c r="D7">
-        <v>260.9099461500078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>105.3090689352061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>262.68802789621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>131.2440474840669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>297.4172153726142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>152.3154621172782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>308.2985565973347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>174.91712323268979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>310.6444913401813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>197.44872752185569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2162,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>341.5918617297549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>199.32385707686879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2176,391 +2198,391 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>348.1738071710737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>199.3313823761828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
       <c r="D14">
-        <v>429.6382199013491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>207.6342938919291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>429.6626583728216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>224.84883811129649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>436.2613895361358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>225.14217730136659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>438.7368231639555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>256.16400996236769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>477.3395018223403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>260.59930928534709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>480.0104165536411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>265.27721349561858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>487.0523585817032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>282.99116593985758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>488.8077331630505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>313.88214348701013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>491.0651687912716</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>326.33265236564972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>491.1466176204413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>334.86116526106758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>499.9379961555233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>352.23003846917999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>522.0239458109178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>354.8309456628607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>525.9068358559338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>391.86222068477082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>528.3341745524323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>396.42527669158528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>536.6600413669719</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>397.1410328837855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>554.5637925432925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>408.01102926269039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>573.3280038511986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>411.23837369584078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>576.427792529125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>422.14689386515693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>19</v>
-      </c>
       <c r="D32">
-        <v>585.8779736429763</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>431.09395727613719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>588.9830218266057</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>447.43826389793708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>592.7731437911134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>510.81307735804887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>599.2603774654219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>521.51030670543798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>612.1315218153693</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>526.39623858838502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>641.3930152410455</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>548.76042131334509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>642.8911260859027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>597.94314110958749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>645.1829197987188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>599.37050311138933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>647.0123646422841</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>625.41186429424249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2568,125 +2590,125 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>655.4464127600364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>625.72917464347142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>666.6340825370393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>636.31517347930651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>668.0276940367069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>642.02258527251206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>703.8423118852688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>659.56425009243787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>705.3538119270356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>660.93343083853767</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>724.1249892111168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>678.10618637496589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>727.6606351864858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>683.8143022780381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>735.8491693275192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>693.00072150034589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>742.8593406560894</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>693.40103836091851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2694,125 +2716,125 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>753.6743328520615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>697.05451723663623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>775.5578637342284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>708.2386603398603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
         <v>5</v>
       </c>
-      <c r="C52">
-        <v>11</v>
-      </c>
       <c r="D52">
-        <v>790.2316116177585</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>708.8765759989534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>791.0056889808062</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>725.27580960624903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>810.605329368121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>731.41643405108141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>810.8279718904621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>751.09054048097289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>818.2970120927976</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>766.65768110676356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>10</v>
       </c>
-      <c r="C57">
-        <v>15</v>
-      </c>
       <c r="D57">
-        <v>822.4268964473378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>768.3397685919947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>832.6613957666106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>790.79706625657127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2820,223 +2842,223 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>833.1632493095216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>800.03999900004999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>837.4150703205669</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>800.76463458372086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>841.2419390401313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>802.62880586233632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>859.6336428967866</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>819.6401649504495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>859.8331233442917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>826.0278445669976</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>874.4855630597912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>830.22466838802131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>905.6323757463621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>835.82593881740718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>938.9041484624508</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>839.66183669379666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>939.0548439787742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>860.79556225621889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>954.4972498650795</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>864.34078927237954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>965.0129532809391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>865.46634827704304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>966.0414069800528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>894.8904960943546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>968.033057286785</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>897.36558882096654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>982.81483505287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>913.00219057787592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>991.3349585281455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>918.14269043542458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>1033.534711560284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>921.92895604813282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3044,419 +3066,419 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>1047.574818330414</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>938.44126081497507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>1076.275986910421</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>938.61387162133929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>1076.505921953056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>950.3962331575184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>1095.805183415373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>951.34641429922885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>1097.366392778638</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>957.5620084360072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>1097.555465568825</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>969.35855079531848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>1097.76181387403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>977.03070576108303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>1105.92450013552</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>987.0207697915987</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>1111.670814584965</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>995.99598392764619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>1116.039425826884</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>1006.78945167299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>1117.169637969095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>1007.397637479858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>1126.73910023572</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>1010.461775625382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D87">
-        <v>1144.493337682662</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>1023.771947261694</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>1144.544014007325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>1026.7278120319911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89">
-        <v>1145.241459256519</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>1044.3567398164289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>1151.118586419314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>1052.182968879463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>1160.419320762973</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>1089.1652767142371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>1164.962231147431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>1089.521454584534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>1169.072281768754</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1096.792596619799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>1170.02777744804</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1100.3244975915061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>1175.195728378894</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>1113.429387074008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>1188.279849193783</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1113.9596042945179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>1188.377886027841</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1118.7457262488199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
         <v>10</v>
       </c>
-      <c r="C98">
-        <v>19</v>
-      </c>
       <c r="D98">
-        <v>1201.800316192337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1119.1568254717481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>1229.286378351277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1121.9380553310421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>1238.854309432711</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1132.5193155085699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>1252.530638347821</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1134.1027290329571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D102">
-        <v>1255.908038034632</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>1156.9706132828089</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103">
-        <v>1256.407577181863</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>1164.883255953145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>1260.605013475672</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1165.351878189588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3464,41 +3486,41 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105">
-        <v>1264.184322003718</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>1165.680059021342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>1275.113328296744</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>1182.302837685844</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>1286.834876742156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1203.3058630290141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3506,531 +3528,531 @@
         <v>7</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D108">
-        <v>1290.439072564063</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1216.244218896846</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109">
-        <v>1303.103986641128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1216.395083844061</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>17</v>
       </c>
       <c r="D110">
-        <v>1310.307215884886</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>1243.574284069914</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>1319.101588203122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>1261.6231608527171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
         <v>11</v>
       </c>
-      <c r="C112">
-        <v>12</v>
-      </c>
       <c r="D112">
-        <v>1331.608425927082</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>1276.3812126476951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>1338.913738819645</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>1277.537083610491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D114">
-        <v>1353.201019804523</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>1285.429889181047</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115">
-        <v>1355.814515337552</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>1289.9961240251851</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D116">
-        <v>1358.464206374242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1292.0081269094251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>1366.398550936</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>1301.12720362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>1372.685324464424</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>1306.59595897125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D119">
-        <v>1385.534193010046</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1309.224579665384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>1410.387889908305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1316.034194084637</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D121">
-        <v>1410.765040678284</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1334.391621676335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D122">
-        <v>1422.021448502096</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>1338.4027794352489</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123">
-        <v>1428.635712839351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1348.392376127958</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>1442.206989304933</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1354.4832963163481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>1444.224705508115</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>1354.8439024478059</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D126">
-        <v>1450.231016079852</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1368.831618571108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C127">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>1457.481732304045</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>1370.454304236373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D128">
-        <v>1474.838635241158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>1371.61401276015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129">
-        <v>1479.082485867506</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>1375.1196311594131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>1500.971685275908</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>1379.1482878936549</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D131">
-        <v>1504.370300158841</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1379.5321670769411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D132">
-        <v>1504.872419841629</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>1384.3771162512039</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C133">
         <v>17</v>
       </c>
       <c r="D133">
-        <v>1505.314917218321</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>1386.473584313816</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D134">
-        <v>1505.515194210938</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>1395.59915448527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D135">
-        <v>1508.510523662331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>1400.9953604491341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D136">
-        <v>1508.971835389912</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>1409.7365002013671</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>1511.780407334346</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>1413.609564200809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>1515.702477401155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>1417.77043275701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D139">
-        <v>1518.146896713226</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>1430.8577846872131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D140">
-        <v>1541.086629622099</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>1456.0827586370219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>1548.450838741741</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>1460.998288842256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142">
-        <v>1554.4404137824</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>1463.1230296868409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>1557.333618721435</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>1473.6519263381019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144">
-        <v>1569.128739141566</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>1490.1493213768881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D145">
-        <v>1569.222100277714</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>1491.6011531237159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4038,69 +4060,69 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>1576.049808857575</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>1492.231215328241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D147">
-        <v>1581.565047666393</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1492.697558114168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D148">
-        <v>1584.582279340521</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>1493.7047901108169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C149">
         <v>17</v>
       </c>
       <c r="D149">
-        <v>1594.72442760497</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1499.0350229397579</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D150">
-        <v>1602.768854202003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1518.6062689189721</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4108,335 +4130,335 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151">
-        <v>1607.940919312647</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>1519.581850378584</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D152">
-        <v>1612.189194852763</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>1523.719462368319</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D153">
-        <v>1620.378350879819</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>1526.4874712882511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C154">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D154">
-        <v>1624.205959846226</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>1545.325855604571</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>1631.848644942294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1553.5996910401341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>1634.445471712042</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>1561.5306593211669</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157">
         <v>9</v>
       </c>
       <c r="D157">
-        <v>1640.362459945972</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>1576.118333120962</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D158">
-        <v>1644.019464604966</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>1576.5912596484859</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C159">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D159">
-        <v>1650.418431792374</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1581.2988332380439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D160">
-        <v>1650.918835073366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>1588.752025962516</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C161">
         <v>17</v>
       </c>
       <c r="D161">
-        <v>1712.202382897536</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>1589.1082404921319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C162">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>1729.587523081732</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>1589.8355260843809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D163">
-        <v>1756.337382167788</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>1594.2223809744989</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D164">
-        <v>1758.078780942424</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>1622.0989488930691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D165">
-        <v>1760.616085351943</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>1626.2478285919401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D166">
-        <v>1763.471859713106</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>1627.6221920335199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D167">
-        <v>1790.238252300514</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>1628.110868460745</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
         <v>7</v>
       </c>
-      <c r="C168">
-        <v>9</v>
-      </c>
       <c r="D168">
-        <v>1800.513537855242</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>1631.223467217168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D169">
-        <v>1844.343785740609</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>1637.7182297330639</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C170">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>1845.524586669059</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>1661.796919000634</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>1865.136992287698</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>1663.649301986449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C172">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172">
-        <v>1866.79538246697</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>1685.9967378378881</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C173">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D173">
-        <v>1872.113244437953</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>1691.2341647447879</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D174">
-        <v>1883.318613511798</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>1694.6164757844181</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4444,234 +4466,234 @@
         <v>9</v>
       </c>
       <c r="C175">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D175">
-        <v>1893.805164213045</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>1703.840368109642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C176">
         <v>15</v>
       </c>
       <c r="D176">
-        <v>1910.464341462567</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>1716.473128248736</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D177">
-        <v>1916.38461692845</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>1737.4777696419601</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D178">
-        <v>1918.770439630546</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>1749.698545464332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C179">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D179">
-        <v>1928.483860445817</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>1754.0379129311891</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D180">
-        <v>1932.119302734694</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>1761.1229372193191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C181">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D181">
-        <v>1951.690549241862</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>1768.475332030391</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D182">
-        <v>2031.925687617537</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>1801.741934906328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D183">
-        <v>2034.191977174229</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>1812.577446621247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>2036.079811795206</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>1822.1188215920499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C185">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D185">
-        <v>2047.129697894103</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>1833.0534634865401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C186">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D186">
-        <v>2064.567024826271</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>1861.25575888968</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D187">
-        <v>2074.119572252285</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>1885.125990484456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C188">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188">
-        <v>2079.347253346588</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>2018.065658000254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C189">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D189">
-        <v>2150.011395318639</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>2035.163384104578</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C190">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D190">
-        <v>2151.611953861569</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>2100.1659458242821</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C191">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D191">
-        <v>2233.250545729251</v>
+        <v>2399.5216189899188</v>
       </c>
     </row>
   </sheetData>
@@ -4680,14 +4702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -4698,147 +4720,147 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>111.0180165558726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>25.94224354214569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>221.472345903501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>47.265209192385903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>225.3752426510064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>58.051701094799967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>230.0195643852931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>84.899941107164494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>257.7692766797471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>85.14693182963201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
       <c r="D7">
-        <v>260.9099461500078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>105.3090689352061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>262.68802789621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>131.2440474840669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>297.4172153726142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>152.3154621172782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>308.2985565973347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>174.91712323268979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>310.6444913401813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>197.44872752185569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4846,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>341.5918617297549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>199.32385707686879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4860,391 +4882,391 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>348.1738071710737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>199.3313823761828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
       <c r="D14">
-        <v>429.6382199013491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>207.6342938919291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>429.6626583728216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>224.84883811129649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>436.2613895361358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>225.14217730136659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>438.7368231639555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>256.16400996236769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>477.3395018223403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>260.59930928534709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>480.0104165536411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>265.27721349561858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>487.0523585817032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>282.99116593985758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>488.8077331630505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>313.88214348701013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>491.0651687912716</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>326.33265236564972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>491.1466176204413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>334.86116526106758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>499.9379961555233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>352.23003846917999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>522.0239458109178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>354.8309456628607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>525.9068358559338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>391.86222068477082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>528.3341745524323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>396.42527669158528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>536.6600413669719</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>397.1410328837855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>554.5637925432925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>408.01102926269039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>573.3280038511986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>411.23837369584078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>576.427792529125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>422.14689386515693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>19</v>
-      </c>
       <c r="D32">
-        <v>585.8779736429763</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>431.09395727613719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>588.9830218266057</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>447.43826389793708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>592.7731437911134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>510.81307735804887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>599.2603774654219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>521.51030670543798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>612.1315218153693</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>526.39623858838502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>641.3930152410455</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>548.76042131334509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>642.8911260859027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>597.94314110958749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>645.1829197987188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>599.37050311138933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>647.0123646422841</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>625.41186429424249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5252,125 +5274,125 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>655.4464127600364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>625.72917464347142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>666.6340825370393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>636.31517347930651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>668.0276940367069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>642.02258527251206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>703.8423118852688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>659.56425009243787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>705.3538119270356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>660.93343083853767</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>724.1249892111168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>678.10618637496589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>727.6606351864858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>683.8143022780381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>735.8491693275192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>693.00072150034589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>742.8593406560894</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>693.40103836091851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5378,125 +5400,125 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>753.6743328520615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>697.05451723663623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>775.5578637342284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>708.2386603398603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
         <v>5</v>
       </c>
-      <c r="C52">
-        <v>11</v>
-      </c>
       <c r="D52">
-        <v>790.2316116177585</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>708.8765759989534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>791.0056889808062</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>725.27580960624903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>810.605329368121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>731.41643405108141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>810.8279718904621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>751.09054048097289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>818.2970120927976</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>766.65768110676356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>10</v>
       </c>
-      <c r="C57">
-        <v>15</v>
-      </c>
       <c r="D57">
-        <v>822.4268964473378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>768.3397685919947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>832.6613957666106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>790.79706625657127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5504,223 +5526,223 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>833.1632493095216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>800.03999900004999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>837.4150703205669</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>800.76463458372086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>841.2419390401313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>802.62880586233632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>859.6336428967866</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>819.6401649504495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>859.8331233442917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>826.0278445669976</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>874.4855630597912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>830.22466838802131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>905.6323757463621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>835.82593881740718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>938.9041484624508</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>839.66183669379666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>939.0548439787742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>860.79556225621889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>954.4972498650795</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>864.34078927237954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>965.0129532809391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>865.46634827704304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>966.0414069800528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>894.8904960943546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>968.033057286785</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>897.36558882096654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>982.81483505287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>913.00219057787592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>991.3349585281455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>918.14269043542458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>1033.534711560284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>921.92895604813282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5728,419 +5750,419 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>1047.574818330414</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>938.44126081497507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>1076.275986910421</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>938.61387162133929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>1076.505921953056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>950.3962331575184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>1095.805183415373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>951.34641429922885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>1097.366392778638</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>957.5620084360072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>1097.555465568825</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>969.35855079531848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>1097.76181387403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>977.03070576108303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>1105.92450013552</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>987.0207697915987</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>1111.670814584965</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>995.99598392764619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>1116.039425826884</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>1006.78945167299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>1117.169637969095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>1007.397637479858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>1126.73910023572</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>1010.461775625382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D87">
-        <v>1144.493337682662</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>1023.771947261694</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>1144.544014007325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>1026.7278120319911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89">
-        <v>1145.241459256519</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>1044.3567398164289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>1151.118586419314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>1052.182968879463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>1160.419320762973</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>1089.1652767142371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>1164.962231147431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>1089.521454584534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>1169.072281768754</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1096.792596619799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>1170.02777744804</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1100.3244975915061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>1175.195728378894</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>1113.429387074008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>1188.279849193783</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1113.9596042945179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>1188.377886027841</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1118.7457262488199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
         <v>10</v>
       </c>
-      <c r="C98">
-        <v>19</v>
-      </c>
       <c r="D98">
-        <v>1201.800316192337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1119.1568254717481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>1229.286378351277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1121.9380553310421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>1238.854309432711</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1132.5193155085699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>1252.530638347821</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1134.1027290329571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D102">
-        <v>1255.908038034632</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>1156.9706132828089</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103">
-        <v>1256.407577181863</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>1164.883255953145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>1260.605013475672</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1165.351878189588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6148,41 +6170,41 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105">
-        <v>1264.184322003718</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>1165.680059021342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>1275.113328296744</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>1182.302837685844</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>1286.834876742156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1203.3058630290141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6190,531 +6212,531 @@
         <v>7</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D108">
-        <v>1290.439072564063</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1216.244218896846</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109">
-        <v>1303.103986641128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1216.395083844061</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>17</v>
       </c>
       <c r="D110">
-        <v>1310.307215884886</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>1243.574284069914</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>1319.101588203122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>1261.6231608527171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
         <v>11</v>
       </c>
-      <c r="C112">
-        <v>12</v>
-      </c>
       <c r="D112">
-        <v>1331.608425927082</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>1276.3812126476951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>1338.913738819645</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>1277.537083610491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D114">
-        <v>1353.201019804523</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>1285.429889181047</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115">
-        <v>1355.814515337552</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>1289.9961240251851</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D116">
-        <v>1358.464206374242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1292.0081269094251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>1366.398550936</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>1301.12720362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>1372.685324464424</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>1306.59595897125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D119">
-        <v>1385.534193010046</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1309.224579665384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>1410.387889908305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1316.034194084637</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D121">
-        <v>1410.765040678284</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1334.391621676335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D122">
-        <v>1422.021448502096</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>1338.4027794352489</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123">
-        <v>1428.635712839351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1348.392376127958</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>1442.206989304933</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1354.4832963163481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>1444.224705508115</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>1354.8439024478059</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D126">
-        <v>1450.231016079852</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1368.831618571108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C127">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>1457.481732304045</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>1370.454304236373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D128">
-        <v>1474.838635241158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>1371.61401276015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129">
-        <v>1479.082485867506</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>1375.1196311594131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>1500.971685275908</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>1379.1482878936549</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D131">
-        <v>1504.370300158841</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1379.5321670769411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D132">
-        <v>1504.872419841629</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>1384.3771162512039</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C133">
         <v>17</v>
       </c>
       <c r="D133">
-        <v>1505.314917218321</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>1386.473584313816</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D134">
-        <v>1505.515194210938</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>1395.59915448527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D135">
-        <v>1508.510523662331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>1400.9953604491341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D136">
-        <v>1508.971835389912</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>1409.7365002013671</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>1511.780407334346</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>1413.609564200809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>1515.702477401155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>1417.77043275701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D139">
-        <v>1518.146896713226</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>1430.8577846872131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D140">
-        <v>1541.086629622099</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>1456.0827586370219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>1548.450838741741</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>1460.998288842256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142">
-        <v>1554.4404137824</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>1463.1230296868409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>1557.333618721435</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>1473.6519263381019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144">
-        <v>1569.128739141566</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>1490.1493213768881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D145">
-        <v>1569.222100277714</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>1491.6011531237159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6722,69 +6744,69 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>1576.049808857575</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>1492.231215328241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D147">
-        <v>1581.565047666393</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1492.697558114168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D148">
-        <v>1584.582279340521</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>1493.7047901108169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C149">
         <v>17</v>
       </c>
       <c r="D149">
-        <v>1594.72442760497</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1499.0350229397579</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D150">
-        <v>1602.768854202003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1518.6062689189721</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6792,335 +6814,335 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151">
-        <v>1607.940919312647</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>1519.581850378584</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D152">
-        <v>1612.189194852763</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>1523.719462368319</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D153">
-        <v>1620.378350879819</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>1526.4874712882511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C154">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D154">
-        <v>1624.205959846226</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>1545.325855604571</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>1631.848644942294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1553.5996910401341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>1634.445471712042</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>1561.5306593211669</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157">
         <v>9</v>
       </c>
       <c r="D157">
-        <v>1640.362459945972</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>1576.118333120962</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D158">
-        <v>1644.019464604966</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>1576.5912596484859</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C159">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D159">
-        <v>1650.418431792374</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1581.2988332380439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D160">
-        <v>1650.918835073366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>1588.752025962516</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C161">
         <v>17</v>
       </c>
       <c r="D161">
-        <v>1712.202382897536</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>1589.1082404921319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C162">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>1729.587523081732</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>1589.8355260843809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D163">
-        <v>1756.337382167788</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>1594.2223809744989</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D164">
-        <v>1758.078780942424</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>1622.0989488930691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D165">
-        <v>1760.616085351943</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>1626.2478285919401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D166">
-        <v>1763.471859713106</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>1627.6221920335199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D167">
-        <v>1790.238252300514</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>1628.110868460745</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
         <v>7</v>
       </c>
-      <c r="C168">
-        <v>9</v>
-      </c>
       <c r="D168">
-        <v>1800.513537855242</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>1631.223467217168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D169">
-        <v>1844.343785740609</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>1637.7182297330639</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C170">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>1845.524586669059</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>1661.796919000634</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>1865.136992287698</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>1663.649301986449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C172">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172">
-        <v>1866.79538246697</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>1685.9967378378881</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C173">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D173">
-        <v>1872.113244437953</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>1691.2341647447879</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D174">
-        <v>1883.318613511798</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>1694.6164757844181</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7128,234 +7150,234 @@
         <v>9</v>
       </c>
       <c r="C175">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D175">
-        <v>1893.805164213045</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>1703.840368109642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C176">
         <v>15</v>
       </c>
       <c r="D176">
-        <v>1910.464341462567</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>1716.473128248736</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D177">
-        <v>1916.38461692845</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>1737.4777696419601</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D178">
-        <v>1918.770439630546</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>1749.698545464332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C179">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D179">
-        <v>1928.483860445817</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>1754.0379129311891</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D180">
-        <v>1932.119302734694</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>1761.1229372193191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C181">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D181">
-        <v>1951.690549241862</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>1768.475332030391</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D182">
-        <v>2031.925687617537</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>1801.741934906328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D183">
-        <v>2034.191977174229</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>1812.577446621247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>2036.079811795206</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>1822.1188215920499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C185">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D185">
-        <v>2047.129697894103</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>1833.0534634865401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C186">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D186">
-        <v>2064.567024826271</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>1861.25575888968</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D187">
-        <v>2074.119572252285</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>1885.125990484456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C188">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188">
-        <v>2079.347253346588</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>2018.065658000254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C189">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D189">
-        <v>2150.011395318639</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>2035.163384104578</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C190">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D190">
-        <v>2151.611953861569</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>2100.1659458242821</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C191">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D191">
-        <v>2233.250545729251</v>
+        <v>2399.5216189899188</v>
       </c>
     </row>
   </sheetData>
@@ -7364,14 +7386,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -7433,7 +7457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7453,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>341.5918617297549</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>131.2440474840669</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -7471,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>522.0239458109178</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>199.32385707686879</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -7486,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>348.1738071710737</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -7498,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7509,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>396.42527669158528</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7518,10 +7542,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>354.8309456628607</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>597.94314110958749</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -7542,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>225.3752426510064</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -7563,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7592,16 +7616,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>576.427792529125</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>525.9068358559338</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1113.429387074008</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -7628,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7644,14 +7668,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" s="2">
+        <v>85.14693182963201</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" s="2">
+        <v>105.3090689352061</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -7660,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>491.0651687912716</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -7684,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>111.0180165558726</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7693,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7734,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>262.68802789621</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -7746,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>310.6444913401813</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -7758,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7784,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>308.2985565973347</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -7811,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>265.27721349561858</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -7820,10 +7844,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>510.81307735804887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7852,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>260.9099461500078</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7873,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>230.0195643852931</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -7888,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7935,10 +7959,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>256.16400996236769</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>521.51030670543798</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -7953,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7993,8 +8017,8 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="N10" s="2">
+        <v>152.3154621172782</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -8015,10 +8039,10 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>257.7692766797471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8061,8 +8085,8 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
+      <c r="O11" s="2">
+        <v>25.94224354214569</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -8080,10 +8104,10 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>585.8779736429763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8123,14 +8147,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>297.4172153726142</v>
+      <c r="N12" s="2">
+        <v>47.265209192385903</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>429.6626583728216</v>
+      <c r="P12" s="2">
+        <v>58.051701094799967</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -8148,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8213,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8278,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8337,13 +8361,13 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>221.472345903501</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8402,13 +8426,13 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>429.6382199013491</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8470,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>447.43826389793708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8532,13 +8556,13 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>260.59930928534709</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8597,13 +8621,13 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>411.23837369584078</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8668,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
